--- a/src/main/java/com/test/testdata/TestFramework_TestData.xlsx
+++ b/src/main/java/com/test/testdata/TestFramework_TestData.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raviza\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>title</t>
   </si>
@@ -42,35 +37,32 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>test4</t>
-  </si>
-  <si>
     <t>microsoft</t>
   </si>
   <si>
     <t>Dr.</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
     <t>amazon</t>
   </si>
   <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
     <t>facebook</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>jkl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,23 +372,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,37 +402,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -449,7 +441,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -458,12 +450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/test/testdata/TestFramework_TestData.xlsx
+++ b/src/main/java/com/test/testdata/TestFramework_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>title</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>jkl</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>google deal 1</t>
+  </si>
+  <si>
+    <t>google</t>
+  </si>
+  <si>
+    <t>facebook deal 2</t>
   </si>
 </sst>
 </file>
@@ -372,7 +384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,8 +394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" activeCellId="1" sqref="A1 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -451,12 +463,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>